--- a/data/climate_data_availability/6146_data.xlsx
+++ b/data/climate_data_availability/6146_data.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cavelab\Documents\kim jacobsen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F13176ED628C588D4D8F3360997D6A53AE97A39B" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="179016" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="21">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,16 +63,25 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
   <si>
     <t>Kitobola</t>
@@ -80,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,6 +230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -255,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,37 +474,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B176"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -492,13 +536,22 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>6146</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -545,13 +598,16 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -598,13 +654,16 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
-        <v>6148</v>
+        <v>6146</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -651,13 +710,16 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
-        <v>6149</v>
+        <v>6146</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -704,13 +766,16 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
-        <v>6150</v>
+        <v>6146</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -757,13 +822,16 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
-        <v>6151</v>
+        <v>6146</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -810,13 +878,16 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
-        <v>6152</v>
+        <v>6146</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -863,13 +934,16 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
-        <v>6153</v>
+        <v>6146</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -916,13 +990,16 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
-        <v>6154</v>
+        <v>6146</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -969,13 +1046,16 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
-        <v>6155</v>
+        <v>6146</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1022,13 +1102,16 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
-        <v>6156</v>
+        <v>6146</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1075,13 +1158,16 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
-        <v>6157</v>
+        <v>6146</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1128,13 +1214,16 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
-        <v>6158</v>
+        <v>6146</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -1181,13 +1270,16 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
-        <v>6159</v>
+        <v>6146</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1234,13 +1326,16 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
-        <v>6160</v>
+        <v>6146</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1287,13 +1382,16 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
-        <v>6161</v>
+        <v>6146</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1340,13 +1438,16 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
-        <v>6162</v>
+        <v>6146</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1393,13 +1494,16 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
-        <v>6163</v>
+        <v>6146</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1446,13 +1550,16 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
-        <v>6164</v>
+        <v>6146</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1499,13 +1606,16 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
-        <v>6165</v>
+        <v>6146</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1552,13 +1662,16 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
-        <v>6166</v>
+        <v>6146</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1605,13 +1718,16 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
-        <v>6167</v>
+        <v>6146</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1658,13 +1774,16 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
-        <v>6168</v>
+        <v>6146</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1711,13 +1830,16 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
-        <v>6169</v>
+        <v>6146</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1764,13 +1886,16 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
-        <v>6170</v>
+        <v>6146</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -1817,13 +1942,16 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
-        <v>6171</v>
+        <v>6146</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1870,13 +1998,16 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
-        <v>6172</v>
+        <v>6146</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -1923,13 +2054,16 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
-        <v>6173</v>
+        <v>6146</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -1976,13 +2110,16 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
-        <v>6174</v>
+        <v>6146</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -2029,13 +2166,16 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
-        <v>6175</v>
+        <v>6146</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2082,13 +2222,16 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
-        <v>6176</v>
+        <v>6146</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2135,13 +2278,16 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
-        <v>6177</v>
+        <v>6146</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2188,13 +2334,16 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
-        <v>6178</v>
+        <v>6146</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2241,13 +2390,16 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
-        <v>6179</v>
+        <v>6146</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2294,13 +2446,16 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
-        <v>6180</v>
+        <v>6146</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2347,13 +2502,16 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
-        <v>6181</v>
+        <v>6146</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -2400,13 +2558,16 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
-        <v>6182</v>
+        <v>6146</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2453,13 +2614,16 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
-        <v>6183</v>
+        <v>6146</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2506,13 +2670,16 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
-        <v>6184</v>
+        <v>6146</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -2559,13 +2726,16 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
-        <v>6185</v>
+        <v>6146</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -2612,13 +2782,16 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
-        <v>6186</v>
+        <v>6146</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -2665,13 +2838,16 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
-        <v>6187</v>
+        <v>6146</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -2718,13 +2894,16 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
-        <v>6188</v>
+        <v>6146</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -2771,13 +2950,16 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
-        <v>6189</v>
+        <v>6146</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -2824,13 +3006,16 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
-        <v>6190</v>
+        <v>6146</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2877,13 +3062,16 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
-        <v>6191</v>
+        <v>6146</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -2930,13 +3118,16 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
-        <v>6192</v>
+        <v>6146</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2983,13 +3174,16 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
-        <v>6193</v>
+        <v>6146</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -3036,13 +3230,16 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
-        <v>6194</v>
+        <v>6146</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -3089,13 +3286,16 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
-        <v>6195</v>
+        <v>6146</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -3142,13 +3342,16 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
-        <v>6196</v>
+        <v>6146</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3195,13 +3398,16 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
-        <v>6197</v>
+        <v>6146</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3248,13 +3454,16 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
-        <v>6198</v>
+        <v>6146</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -3301,13 +3510,16 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
-        <v>6199</v>
+        <v>6146</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -3354,13 +3566,16 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
-        <v>6200</v>
+        <v>6146</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -3407,13 +3622,16 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
-        <v>6201</v>
+        <v>6146</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -3460,13 +3678,16 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
-        <v>6202</v>
+        <v>6146</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3513,13 +3734,16 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
-        <v>6203</v>
+        <v>6146</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3566,13 +3790,16 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
-        <v>6204</v>
+        <v>6146</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3619,13 +3846,16 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
-        <v>6205</v>
+        <v>6146</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -3672,13 +3902,16 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
-        <v>6206</v>
+        <v>6146</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -3725,13 +3958,16 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
-        <v>6207</v>
+        <v>6146</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -3778,13 +4014,16 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
-        <v>6208</v>
+        <v>6146</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -3831,13 +4070,16 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
-        <v>6209</v>
+        <v>6146</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -3884,13 +4126,16 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
-        <v>6210</v>
+        <v>6146</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -3937,13 +4182,16 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
-        <v>6211</v>
+        <v>6146</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -3990,13 +4238,16 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
-        <v>6212</v>
+        <v>6146</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -4043,13 +4294,16 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
-        <v>6213</v>
+        <v>6146</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -4096,13 +4350,16 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
-        <v>6214</v>
+        <v>6146</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4149,13 +4406,16 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
-        <v>6215</v>
+        <v>6146</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4202,13 +4462,16 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
-        <v>6216</v>
+        <v>6146</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4255,13 +4518,16 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
-        <v>6217</v>
+        <v>6146</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>12</v>
@@ -4308,13 +4574,16 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
-        <v>6218</v>
+        <v>6146</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -4361,13 +4630,16 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
-        <v>6219</v>
+        <v>6146</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -4414,13 +4686,16 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
-        <v>6220</v>
+        <v>6146</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -4467,13 +4742,16 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
-        <v>6221</v>
+        <v>6146</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -4520,13 +4798,16 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
-        <v>6222</v>
+        <v>6146</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -4573,13 +4854,16 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
-        <v>6223</v>
+        <v>6146</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -4626,13 +4910,16 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
-        <v>6224</v>
+        <v>6146</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -4679,13 +4966,16 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
-        <v>6225</v>
+        <v>6146</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -4732,13 +5022,16 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
-        <v>6226</v>
+        <v>6146</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -4785,13 +5078,16 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
-        <v>6227</v>
+        <v>6146</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4838,13 +5134,16 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
-        <v>6228</v>
+        <v>6146</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -4891,13 +5190,16 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
-        <v>6229</v>
+        <v>6146</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>11</v>
@@ -4944,13 +5246,16 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
-        <v>6230</v>
+        <v>6146</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -4997,13 +5302,16 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
-        <v>6231</v>
+        <v>6146</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -5050,13 +5358,16 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
-        <v>6232</v>
+        <v>6146</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>8</v>
@@ -5103,13 +5414,16 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
-        <v>6233</v>
+        <v>6146</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -5156,13 +5470,16 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
-        <v>6234</v>
+        <v>6146</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5209,13 +5526,16 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
-        <v>6235</v>
+        <v>6146</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -5262,13 +5582,16 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
-        <v>6236</v>
+        <v>6146</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -5315,13 +5638,16 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
-        <v>6237</v>
+        <v>6146</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5368,13 +5694,16 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
-        <v>6238</v>
+        <v>6146</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -5421,13 +5750,16 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
-        <v>6239</v>
+        <v>6146</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5474,13 +5806,16 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
-        <v>6240</v>
+        <v>6146</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -5527,13 +5862,16 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
-        <v>6241</v>
+        <v>6146</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C97">
         <v>11</v>
@@ -5580,13 +5918,16 @@
       <c r="Q97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
-        <v>6242</v>
+        <v>6146</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>10</v>
@@ -5633,13 +5974,16 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
-        <v>6243</v>
+        <v>6146</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -5686,13 +6030,16 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
-        <v>6244</v>
+        <v>6146</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C100">
         <v>8</v>
@@ -5739,13 +6086,16 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
-        <v>6245</v>
+        <v>6146</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -5792,13 +6142,16 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
-        <v>6246</v>
+        <v>6146</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -5845,13 +6198,16 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
-        <v>6247</v>
+        <v>6146</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -5898,13 +6254,16 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
-        <v>6248</v>
+        <v>6146</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -5951,13 +6310,16 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
-        <v>6249</v>
+        <v>6146</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -6004,13 +6366,16 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
-        <v>6250</v>
+        <v>6146</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -6057,13 +6422,16 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
-        <v>6251</v>
+        <v>6146</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6110,13 +6478,16 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
-        <v>6252</v>
+        <v>6146</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -6163,13 +6534,16 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
-        <v>6253</v>
+        <v>6146</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>11</v>
@@ -6216,13 +6590,16 @@
       <c r="Q109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
-        <v>6254</v>
+        <v>6146</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C110">
         <v>9</v>
@@ -6269,13 +6646,16 @@
       <c r="Q110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
-        <v>6255</v>
+        <v>6146</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -6322,13 +6702,16 @@
       <c r="Q111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
-        <v>6256</v>
+        <v>6146</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C112">
         <v>7</v>
@@ -6375,13 +6758,16 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
-        <v>6257</v>
+        <v>6146</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C113">
         <v>6</v>
@@ -6428,13 +6814,16 @@
       <c r="Q113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
-        <v>6258</v>
+        <v>6146</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -6481,13 +6870,16 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
-        <v>6259</v>
+        <v>6146</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -6534,13 +6926,16 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
-        <v>6260</v>
+        <v>6146</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -6587,13 +6982,16 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
-        <v>6261</v>
+        <v>6146</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -6640,13 +7038,16 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
-        <v>6262</v>
+        <v>6146</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -6693,13 +7094,16 @@
       <c r="Q118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
-        <v>6263</v>
+        <v>6146</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -6746,13 +7150,16 @@
       <c r="Q119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120">
-        <v>6264</v>
+        <v>6146</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -6799,13 +7206,16 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121">
-        <v>6265</v>
+        <v>6146</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -6852,13 +7262,16 @@
       <c r="Q121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122">
-        <v>6266</v>
+        <v>6146</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -6905,13 +7318,16 @@
       <c r="Q122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123">
-        <v>6267</v>
+        <v>6146</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C123">
         <v>7</v>
@@ -6958,13 +7374,16 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124">
-        <v>6268</v>
+        <v>6146</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C124">
         <v>8</v>
@@ -7011,13 +7430,16 @@
       <c r="Q124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125">
-        <v>6269</v>
+        <v>6146</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -7064,13 +7486,16 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126">
-        <v>6270</v>
+        <v>6146</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C126">
         <v>10</v>
@@ -7117,13 +7542,16 @@
       <c r="Q126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127">
-        <v>6271</v>
+        <v>6146</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -7170,13 +7598,16 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128">
-        <v>6272</v>
+        <v>6146</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>12</v>
@@ -7223,13 +7654,16 @@
       <c r="Q128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129">
-        <v>6273</v>
+        <v>6146</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>11</v>
@@ -7276,13 +7710,16 @@
       <c r="Q129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130">
-        <v>6274</v>
+        <v>6146</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>10</v>
@@ -7329,13 +7766,16 @@
       <c r="Q130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131">
-        <v>6275</v>
+        <v>6146</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C131">
         <v>9</v>
@@ -7382,13 +7822,16 @@
       <c r="Q131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132">
-        <v>6276</v>
+        <v>6146</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -7435,13 +7878,16 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133">
-        <v>6277</v>
+        <v>6146</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C133">
         <v>7</v>
@@ -7488,13 +7934,16 @@
       <c r="Q133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134">
-        <v>6278</v>
+        <v>6146</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C134">
         <v>6</v>
@@ -7541,13 +7990,16 @@
       <c r="Q134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135">
-        <v>6279</v>
+        <v>6146</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7594,13 +8046,16 @@
       <c r="Q135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136">
-        <v>6280</v>
+        <v>6146</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -7647,13 +8102,16 @@
       <c r="Q136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137">
-        <v>6281</v>
+        <v>6146</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -7700,13 +8158,16 @@
       <c r="Q137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138">
-        <v>6282</v>
+        <v>6146</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -7753,13 +8214,16 @@
       <c r="Q138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139">
-        <v>6283</v>
+        <v>6146</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -7806,13 +8270,16 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140">
-        <v>6284</v>
+        <v>6146</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -7859,13 +8326,16 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141">
-        <v>6285</v>
+        <v>6146</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C141">
         <v>12</v>
@@ -7912,13 +8382,16 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142">
-        <v>6286</v>
+        <v>6146</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C142">
         <v>10</v>
@@ -7965,13 +8438,16 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143">
-        <v>6287</v>
+        <v>6146</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -8018,13 +8494,16 @@
       <c r="Q143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144">
-        <v>6288</v>
+        <v>6146</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C144">
         <v>8</v>
@@ -8071,13 +8550,16 @@
       <c r="Q144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145">
-        <v>6289</v>
+        <v>6146</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C145">
         <v>7</v>
@@ -8124,13 +8606,16 @@
       <c r="Q145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146">
-        <v>6290</v>
+        <v>6146</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C146">
         <v>6</v>
@@ -8177,13 +8662,16 @@
       <c r="Q146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147">
-        <v>6291</v>
+        <v>6146</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -8230,13 +8718,16 @@
       <c r="Q147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148">
-        <v>6292</v>
+        <v>6146</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -8283,13 +8774,16 @@
       <c r="Q148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149">
-        <v>6293</v>
+        <v>6146</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -8336,13 +8830,16 @@
       <c r="Q149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150">
-        <v>6294</v>
+        <v>6146</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -8389,13 +8886,16 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151">
-        <v>6295</v>
+        <v>6146</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -8442,13 +8942,16 @@
       <c r="Q151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152">
-        <v>6296</v>
+        <v>6146</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -8495,13 +8998,16 @@
       <c r="Q152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153">
-        <v>6297</v>
+        <v>6146</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C153">
         <v>12</v>
@@ -8548,13 +9054,16 @@
       <c r="Q153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154">
-        <v>6298</v>
+        <v>6146</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C154">
         <v>11</v>
@@ -8601,13 +9110,16 @@
       <c r="Q154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155">
-        <v>6299</v>
+        <v>6146</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C155">
         <v>10</v>
@@ -8654,13 +9166,16 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156">
-        <v>6300</v>
+        <v>6146</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
         <v>9</v>
@@ -8707,13 +9222,16 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157">
-        <v>6301</v>
+        <v>6146</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C157">
         <v>8</v>
@@ -8760,13 +9278,16 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158">
-        <v>6302</v>
+        <v>6146</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C158">
         <v>12</v>
@@ -8813,13 +9334,16 @@
       <c r="Q158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159">
-        <v>6303</v>
+        <v>6146</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -8866,13 +9390,16 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160">
-        <v>6304</v>
+        <v>6146</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -8919,13 +9446,16 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161">
-        <v>6305</v>
+        <v>6146</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -8972,13 +9502,16 @@
       <c r="Q161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162">
-        <v>6306</v>
+        <v>6146</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C162">
         <v>4</v>
@@ -9025,13 +9558,16 @@
       <c r="Q162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163">
-        <v>6307</v>
+        <v>6146</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C163">
         <v>5</v>
@@ -9078,13 +9614,16 @@
       <c r="Q163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164">
-        <v>6308</v>
+        <v>6146</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C164">
         <v>6</v>
@@ -9131,13 +9670,16 @@
       <c r="Q164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165">
-        <v>6309</v>
+        <v>6146</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -9184,13 +9726,16 @@
       <c r="Q165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166">
-        <v>6310</v>
+        <v>6146</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C166">
         <v>8</v>
@@ -9237,13 +9782,16 @@
       <c r="Q166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167">
-        <v>6311</v>
+        <v>6146</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -9290,13 +9838,16 @@
       <c r="Q167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168">
-        <v>6312</v>
+        <v>6146</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C168">
         <v>10</v>
@@ -9343,13 +9894,16 @@
       <c r="Q168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169">
-        <v>6313</v>
+        <v>6146</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C169">
         <v>11</v>
@@ -9396,13 +9950,16 @@
       <c r="Q169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170">
-        <v>6314</v>
+        <v>6146</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C170">
         <v>12</v>
@@ -9449,13 +10006,16 @@
       <c r="Q170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171">
-        <v>6315</v>
+        <v>6146</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -9502,13 +10062,16 @@
       <c r="Q171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172">
-        <v>6316</v>
+        <v>6146</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -9555,13 +10118,16 @@
       <c r="Q172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173">
-        <v>6317</v>
+        <v>6146</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -9608,13 +10174,16 @@
       <c r="Q173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174">
-        <v>6318</v>
+        <v>6146</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -9661,13 +10230,16 @@
       <c r="Q174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175">
-        <v>6319</v>
+        <v>6146</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C175">
         <v>5</v>
@@ -9714,13 +10286,16 @@
       <c r="Q175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176">
-        <v>6320</v>
+        <v>6146</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C176">
         <v>6</v>
@@ -9765,6 +10340,9 @@
         <v>0</v>
       </c>
       <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
         <v>0</v>
       </c>
     </row>
@@ -9774,24 +10352,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
